--- a/SimpleCalculate.xlsx
+++ b/SimpleCalculate.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12348" windowHeight="7524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12345" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>MwST</t>
   </si>
@@ -72,6 +73,24 @@
   <si>
     <t>Summe von Brutto</t>
   </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>L40988</t>
+  </si>
+  <si>
+    <t>L40989</t>
+  </si>
+  <si>
+    <t>L40990</t>
+  </si>
+  <si>
+    <t>L40993</t>
+  </si>
+  <si>
+    <t>L40994</t>
+  </si>
 </sst>
 </file>
 
@@ -99,6 +118,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,7 +144,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -138,13 +158,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -238,13 +322,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -262,6 +339,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -526,11 +607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="492395056"/>
-        <c:axId val="492395448"/>
+        <c:axId val="778278384"/>
+        <c:axId val="778272504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492395056"/>
+        <c:axId val="778278384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +654,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492395448"/>
+        <c:crossAx val="778272504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -581,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492395448"/>
+        <c:axId val="778272504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +713,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492395056"/>
+        <c:crossAx val="778278384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1384,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="42531.655642592596" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="19">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dahn Park" refreshedDate="42633.61745208333" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="19">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle1"/>
   </cacheSource>
@@ -1480,7 +1561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1578,15 +1659,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="A1:D5" totalsRowCount="1" headerRowDxfId="4">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="A6:D9" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="A6:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Netto" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Währung"/>
-    <tableColumn id="2" name="MwST" totalsRowDxfId="2" dataCellStyle="Prozent"/>
-    <tableColumn id="3" name="MwST2" dataDxfId="1" dataCellStyle="Währung">
+    <tableColumn id="1" name="Netto" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="MwST" totalsRowDxfId="13" dataCellStyle="Prozent"/>
+    <tableColumn id="3" name="MwST2" dataDxfId="12" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle13[[#This Row],[Netto]]*Tabelle13[[#This Row],[MwST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Währung">
+    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" totalsRowDxfId="11" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle13[[#This Row],[Netto]]+Tabelle13[[#This Row],[MwST2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1595,16 +1676,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E21" totalsRowCount="1" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle136" displayName="Tabelle136" ref="A1:D4" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="A1:D3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Netto" totalsRowFunction="sum" totalsRowDxfId="9" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="MwST" totalsRowDxfId="8" dataCellStyle="Prozent"/>
+    <tableColumn id="3" name="MwST2" dataDxfId="7" dataCellStyle="Währung">
+      <calculatedColumnFormula>Tabelle136[[#This Row],[Netto]]*Tabelle136[[#This Row],[MwST]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Währung">
+      <calculatedColumnFormula>Tabelle136[[#This Row],[Netto]]+Tabelle136[[#This Row],[MwST2]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:B8" totalsRowCount="1">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="RG"/>
+    <tableColumn id="1" name="Spalte1" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E21" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A1:E20"/>
   <tableColumns count="5">
-    <tableColumn id="5" name="Spalte1" dataDxfId="8" dataCellStyle="Währung"/>
-    <tableColumn id="1" name="Netto" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Währung"/>
-    <tableColumn id="2" name="MwST" totalsRowDxfId="6" dataCellStyle="Prozent"/>
-    <tableColumn id="3" name="MwST2" dataDxfId="9" dataCellStyle="Währung">
+    <tableColumn id="5" name="Spalte1" dataDxfId="4" dataCellStyle="Währung"/>
+    <tableColumn id="1" name="Netto" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="MwST" totalsRowDxfId="2" dataCellStyle="Prozent"/>
+    <tableColumn id="3" name="MwST2" dataDxfId="1" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Netto]]*Tabelle1[[#This Row],[MwST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Währung">
+    <tableColumn id="4" name="Brutto" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Netto]]+Tabelle1[[#This Row],[MwST2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1875,15 +1984,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1897,74 +2010,204 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>124.03</v>
+        <v>5188.5600000000004</v>
       </c>
       <c r="B2" s="1">
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C2" s="2">
-        <f>Tabelle13[[#This Row],[Netto]]*Tabelle13[[#This Row],[MwST]]</f>
-        <v>23.5657</v>
+        <f>Tabelle136[[#This Row],[Netto]]*Tabelle136[[#This Row],[MwST]]</f>
+        <v>363.19920000000008</v>
       </c>
       <c r="D2" s="2">
-        <f>Tabelle13[[#This Row],[Netto]]+Tabelle13[[#This Row],[MwST2]]</f>
-        <v>147.59569999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>Tabelle136[[#This Row],[Netto]]+Tabelle136[[#This Row],[MwST2]]</f>
+        <v>5551.7592000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>38.729999999999997</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>0.19</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
+        <f>Tabelle136[[#This Row],[Netto]]*Tabelle136[[#This Row],[MwST]]</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Tabelle136[[#This Row],[Netto]]+Tabelle136[[#This Row],[MwST2]]</f>
+        <v>53.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>SUBTOTAL(109,Tabelle136[Netto])</f>
+        <v>5233.5600000000004</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="D4" s="12">
+        <f>SUBTOTAL(109,Tabelle136[Brutto])</f>
+        <v>5605.3092000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3409.72</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <f>Tabelle13[[#This Row],[Netto]]*Tabelle13[[#This Row],[MwST]]</f>
-        <v>7.3586999999999998</v>
-      </c>
-      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <f>Tabelle13[[#This Row],[Netto]]+Tabelle13[[#This Row],[MwST2]]</f>
-        <v>46.088699999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>48.42</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="C4" s="6">
+        <v>3409.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7635.01</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <f>Tabelle13[[#This Row],[Netto]]*Tabelle13[[#This Row],[MwST]]</f>
-        <v>9.1997999999999998</v>
-      </c>
-      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <f>Tabelle13[[#This Row],[Netto]]+Tabelle13[[#This Row],[MwST2]]</f>
-        <v>57.619799999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+        <v>7635.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <f>SUBTOTAL(109,Tabelle13[Netto])</f>
-        <v>211.18</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="5">
+        <v>11044.73</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="D9" s="12">
         <f>SUBTOTAL(109,Tabelle13[Brutto])</f>
-        <v>251.30419999999998</v>
+        <v>11044.73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>-170.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>-2401.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>-195.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>-1560.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>-452.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>283057</v>
+      </c>
+      <c r="B7">
+        <v>247.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUBTOTAL(109,Tabelle3[Spalte1])</f>
+        <v>-4533.0400000000009</v>
+      </c>
+      <c r="C8">
+        <v>-4671.88</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle3[[#Totals],[Spalte1]]-C8</f>
+        <v>138.83999999999924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1972,14 +2215,14 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4531</v>
       </c>
@@ -2001,7 +2244,7 @@
         <v>103.70849999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>4534</v>
       </c>
@@ -2012,7 +2255,7 @@
         <v>186.7586</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4536</v>
       </c>
@@ -2023,7 +2266,7 @@
         <v>147.59569999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2277,7 @@
         <v>153.04589999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2045,7 +2288,7 @@
         <v>150.79679999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2299,7 @@
         <v>175.59640000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2310,7 @@
         <v>111.8481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2321,7 @@
         <v>45.803100000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2095,21 +2338,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:E21"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4536</v>
       </c>
@@ -2145,7 +2389,7 @@
         <v>147.59569999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>4531</v>
       </c>
@@ -2165,7 +2409,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4531</v>
       </c>
@@ -2184,7 +2428,7 @@
         <v>57.619799999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4534</v>
       </c>
@@ -2203,7 +2447,7 @@
         <v>56.596400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4534</v>
       </c>
@@ -2222,7 +2466,7 @@
         <v>18.2546</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4534</v>
       </c>
@@ -2241,7 +2485,7 @@
         <v>8.1872000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4534</v>
       </c>
@@ -2260,7 +2504,7 @@
         <v>48.647200000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4534</v>
       </c>
@@ -2279,7 +2523,7 @@
         <v>55.0732</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2542,7 @@
         <v>67.675299999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2561,7 @@
         <v>77.683199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2580,7 @@
         <v>7.6874000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2599,7 @@
         <v>87.8934</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -2374,7 +2618,7 @@
         <v>62.903399999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2637,7 @@
         <v>55.6325</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2656,7 @@
         <v>65.497600000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2675,7 @@
         <v>54.466300000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2694,7 @@
         <v>67.389700000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
@@ -2469,7 +2713,7 @@
         <v>44.458399999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -2488,7 +2732,7 @@
         <v>45.803100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <f>SUBTOTAL(109,Tabelle1[Netto])</f>
         <v>903.4899999999999</v>
